--- a/cfs_6_0.6.xlsx
+++ b/cfs_6_0.6.xlsx
@@ -527,7 +527,7 @@
         <v>0.531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.66</v>
+        <v>0.804</v>
       </c>
       <c r="H2" t="n">
         <v>0.407</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.604</v>
+        <v>0.61</v>
       </c>
       <c r="C3" t="n">
         <v>0.729</v>
@@ -573,7 +573,7 @@
         <v>0.624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.62</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0.375</v>
@@ -619,10 +619,10 @@
         <v>0.58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.634</v>
+        <v>0.734</v>
       </c>
       <c r="H4" t="n">
-        <v>0.377</v>
+        <v>0.394</v>
       </c>
       <c r="I4" t="n">
         <v>0.5629999999999999</v>
@@ -665,7 +665,7 @@
         <v>0.627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.627</v>
+        <v>0.789</v>
       </c>
       <c r="H5" t="n">
         <v>0.352</v>
@@ -677,7 +677,7 @@
         <v>0.322</v>
       </c>
       <c r="K5" t="n">
-        <v>0.44</v>
+        <v>0.417</v>
       </c>
       <c r="L5" t="n">
         <v>0.429</v>
@@ -720,7 +720,7 @@
         <v>0.589</v>
       </c>
       <c r="J6" t="n">
-        <v>0.282</v>
+        <v>0.446</v>
       </c>
       <c r="K6" t="n">
         <v>0.496</v>
@@ -751,7 +751,7 @@
         <v>0.456</v>
       </c>
       <c r="E7" t="n">
-        <v>0.639</v>
+        <v>0.577</v>
       </c>
       <c r="F7" t="n">
         <v>0.553</v>
@@ -772,7 +772,7 @@
         <v>0.481</v>
       </c>
       <c r="L7" t="n">
-        <v>0.513</v>
+        <v>0.46</v>
       </c>
       <c r="M7" t="n">
         <v>3.452830188679245</v>
@@ -803,7 +803,7 @@
         <v>0.533</v>
       </c>
       <c r="G8" t="n">
-        <v>0.608</v>
+        <v>0.707</v>
       </c>
       <c r="H8" t="n">
         <v>0.404</v>
@@ -824,7 +824,7 @@
         <v>2.60377358490566</v>
       </c>
       <c r="N8" t="n">
-        <v>3.988307</v>
+        <v>4.037735849056604</v>
       </c>
     </row>
     <row r="9">
@@ -837,7 +837,7 @@
         <v>0.631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.721</v>
+        <v>0.663</v>
       </c>
       <c r="D9" t="n">
         <v>0.513</v>
@@ -864,7 +864,7 @@
         <v>0.477</v>
       </c>
       <c r="L9" t="n">
-        <v>0.508</v>
+        <v>0.446</v>
       </c>
       <c r="M9" t="n">
         <v>3.551020408163265</v>
@@ -889,13 +889,13 @@
         <v>0.48</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.595</v>
       </c>
       <c r="F10" t="n">
         <v>0.604</v>
       </c>
       <c r="G10" t="n">
-        <v>0.623</v>
+        <v>0.73</v>
       </c>
       <c r="H10" t="n">
         <v>0.367</v>
@@ -941,7 +941,7 @@
         <v>0.576</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.736</v>
       </c>
       <c r="H11" t="n">
         <v>0.381</v>
@@ -956,7 +956,7 @@
         <v>0.505</v>
       </c>
       <c r="L11" t="n">
-        <v>0.463</v>
+        <v>0.443</v>
       </c>
       <c r="M11" t="n">
         <v>3.4</v>
@@ -1002,7 +1002,7 @@
         <v>0.438</v>
       </c>
       <c r="L12" t="n">
-        <v>0.481</v>
+        <v>0.428</v>
       </c>
       <c r="M12" t="n">
         <v>2.254545454545454</v>
@@ -1033,7 +1033,7 @@
         <v>0.613</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.759</v>
       </c>
       <c r="H13" t="n">
         <v>0.375</v>
@@ -1048,7 +1048,7 @@
         <v>0.458</v>
       </c>
       <c r="L13" t="n">
-        <v>0.464</v>
+        <v>0.447</v>
       </c>
       <c r="M13" t="n">
         <v>3.8125</v>
@@ -1073,7 +1073,7 @@
         <v>0.443</v>
       </c>
       <c r="E14" t="n">
-        <v>0.633</v>
+        <v>0.578</v>
       </c>
       <c r="F14" t="n">
         <v>0.556</v>
@@ -1140,7 +1140,7 @@
         <v>0.467</v>
       </c>
       <c r="L15" t="n">
-        <v>0.509</v>
+        <v>0.424</v>
       </c>
       <c r="M15" t="n">
         <v>5.162790697674419</v>
@@ -1180,7 +1180,7 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>0.243</v>
+        <v>0.337</v>
       </c>
       <c r="K16" t="n">
         <v>0.459</v>
@@ -1217,7 +1217,7 @@
         <v>0.573</v>
       </c>
       <c r="G17" t="n">
-        <v>0.575</v>
+        <v>0.742</v>
       </c>
       <c r="H17" t="n">
         <v>0.361</v>
@@ -1226,7 +1226,7 @@
         <v>0.53</v>
       </c>
       <c r="J17" t="n">
-        <v>0.294</v>
+        <v>0.325</v>
       </c>
       <c r="K17" t="n">
         <v>0.441</v>
@@ -1278,7 +1278,7 @@
         <v>0.475</v>
       </c>
       <c r="L18" t="n">
-        <v>0.509</v>
+        <v>0.435</v>
       </c>
       <c r="M18" t="n">
         <v>3.113636363636364</v>
@@ -1297,7 +1297,7 @@
         <v>0.753</v>
       </c>
       <c r="C19" t="n">
-        <v>0.649</v>
+        <v>0.592</v>
       </c>
       <c r="D19" t="n">
         <v>0.391</v>
@@ -1312,7 +1312,7 @@
         <v>0.599</v>
       </c>
       <c r="H19" t="n">
-        <v>0.392</v>
+        <v>0.412</v>
       </c>
       <c r="I19" t="n">
         <v>0.603</v>
@@ -1324,7 +1324,7 @@
         <v>0.497</v>
       </c>
       <c r="L19" t="n">
-        <v>0.482</v>
+        <v>0.407</v>
       </c>
       <c r="M19" t="n">
         <v>1.03125</v>
@@ -1349,7 +1349,7 @@
         <v>0.473</v>
       </c>
       <c r="E20" t="n">
-        <v>0.64</v>
+        <v>0.594</v>
       </c>
       <c r="F20" t="n">
         <v>0.552</v>
@@ -1361,7 +1361,7 @@
         <v>0.373</v>
       </c>
       <c r="I20" t="n">
-        <v>0.523</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J20" t="n">
         <v>0.334</v>
@@ -1416,7 +1416,7 @@
         <v>0.373</v>
       </c>
       <c r="L21" t="n">
-        <v>0.496</v>
+        <v>0.385</v>
       </c>
       <c r="M21" t="n">
         <v>7.21875</v>
@@ -1435,7 +1435,7 @@
         <v>0.571</v>
       </c>
       <c r="C22" t="n">
-        <v>0.695</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D22" t="n">
         <v>0.461</v>
@@ -1447,7 +1447,7 @@
         <v>0.604</v>
       </c>
       <c r="G22" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="H22" t="n">
         <v>0.353</v>
@@ -1456,7 +1456,7 @@
         <v>0.549</v>
       </c>
       <c r="J22" t="n">
-        <v>0.264</v>
+        <v>0.32</v>
       </c>
       <c r="K22" t="n">
         <v>0.482</v>
@@ -1490,10 +1490,10 @@
         <v>0.588</v>
       </c>
       <c r="F23" t="n">
-        <v>0.521</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.626</v>
+        <v>0.709</v>
       </c>
       <c r="H23" t="n">
         <v>0.374</v>
@@ -1527,7 +1527,7 @@
         <v>0.5620000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="D24" t="n">
         <v>0.451</v>
@@ -1542,13 +1542,13 @@
         <v>0.704</v>
       </c>
       <c r="H24" t="n">
-        <v>0.361</v>
+        <v>0.419</v>
       </c>
       <c r="I24" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.284</v>
+        <v>0.336</v>
       </c>
       <c r="K24" t="n">
         <v>0.453</v>
@@ -1579,7 +1579,7 @@
         <v>0.478</v>
       </c>
       <c r="E25" t="n">
-        <v>0.578</v>
+        <v>0.546</v>
       </c>
       <c r="F25" t="n">
         <v>0.501</v>
@@ -1600,7 +1600,7 @@
         <v>0.414</v>
       </c>
       <c r="L25" t="n">
-        <v>0.472</v>
+        <v>0.424</v>
       </c>
       <c r="M25" t="n">
         <v>2.442307692307693</v>
@@ -1619,19 +1619,19 @@
         <v>0.622</v>
       </c>
       <c r="C26" t="n">
-        <v>0.698</v>
+        <v>0.655</v>
       </c>
       <c r="D26" t="n">
         <v>0.452</v>
       </c>
       <c r="E26" t="n">
-        <v>0.615</v>
+        <v>0.579</v>
       </c>
       <c r="F26" t="n">
         <v>0.5570000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.676</v>
+        <v>0.711</v>
       </c>
       <c r="H26" t="n">
         <v>0.385</v>
@@ -1671,7 +1671,7 @@
         <v>0.466</v>
       </c>
       <c r="E27" t="n">
-        <v>0.578</v>
+        <v>0.554</v>
       </c>
       <c r="F27" t="n">
         <v>0.571</v>
@@ -1683,7 +1683,7 @@
         <v>0.352</v>
       </c>
       <c r="I27" t="n">
-        <v>0.592</v>
+        <v>0.532</v>
       </c>
       <c r="J27" t="n">
         <v>0.321</v>
@@ -1692,7 +1692,7 @@
         <v>0.439</v>
       </c>
       <c r="L27" t="n">
-        <v>0.48</v>
+        <v>0.421</v>
       </c>
       <c r="M27" t="n">
         <v>2.666666666666667</v>
@@ -1717,7 +1717,7 @@
         <v>0.45</v>
       </c>
       <c r="E28" t="n">
-        <v>0.556</v>
+        <v>0.538</v>
       </c>
       <c r="F28" t="n">
         <v>0.571</v>
@@ -1732,10 +1732,10 @@
         <v>0.556</v>
       </c>
       <c r="J28" t="n">
-        <v>0.303</v>
+        <v>0.393</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="L28" t="n">
         <v>0.456</v>
@@ -1763,7 +1763,7 @@
         <v>0.457</v>
       </c>
       <c r="E29" t="n">
-        <v>0.605</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F29" t="n">
         <v>0.5590000000000001</v>
@@ -1772,7 +1772,7 @@
         <v>0.655</v>
       </c>
       <c r="H29" t="n">
-        <v>0.356</v>
+        <v>0.401</v>
       </c>
       <c r="I29" t="n">
         <v>0.576</v>
@@ -1818,7 +1818,7 @@
         <v>0.633</v>
       </c>
       <c r="H30" t="n">
-        <v>0.315</v>
+        <v>0.391</v>
       </c>
       <c r="I30" t="n">
         <v>0.576</v>
@@ -1861,7 +1861,7 @@
         <v>0.543</v>
       </c>
       <c r="G31" t="n">
-        <v>0.633</v>
+        <v>0.756</v>
       </c>
       <c r="H31" t="n">
         <v>0.376</v>
@@ -1901,7 +1901,7 @@
         <v>0.426</v>
       </c>
       <c r="E32" t="n">
-        <v>0.604</v>
+        <v>0.524</v>
       </c>
       <c r="F32" t="n">
         <v>0.511</v>
@@ -1947,7 +1947,7 @@
         <v>0.487</v>
       </c>
       <c r="E33" t="n">
-        <v>0.594</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F33" t="n">
         <v>0.517</v>
@@ -1959,10 +1959,10 @@
         <v>0.383</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.612</v>
       </c>
       <c r="J33" t="n">
-        <v>0.384</v>
+        <v>0.48</v>
       </c>
       <c r="K33" t="n">
         <v>0.504</v>
@@ -1993,13 +1993,13 @@
         <v>0.494</v>
       </c>
       <c r="E34" t="n">
-        <v>0.594</v>
+        <v>0.579</v>
       </c>
       <c r="F34" t="n">
         <v>0.542</v>
       </c>
       <c r="G34" t="n">
-        <v>0.697</v>
+        <v>0.725</v>
       </c>
       <c r="H34" t="n">
         <v>0.343</v>
@@ -2042,10 +2042,10 @@
         <v>0.577</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.555</v>
       </c>
       <c r="G35" t="n">
-        <v>0.636</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0.374</v>
@@ -2054,7 +2054,7 @@
         <v>0.547</v>
       </c>
       <c r="J35" t="n">
-        <v>0.369</v>
+        <v>0.393</v>
       </c>
       <c r="K35" t="n">
         <v>0.479</v>
@@ -2079,7 +2079,7 @@
         <v>0.625</v>
       </c>
       <c r="C36" t="n">
-        <v>0.641</v>
+        <v>0.661</v>
       </c>
       <c r="D36" t="n">
         <v>0.478</v>
@@ -2088,10 +2088,10 @@
         <v>0.592</v>
       </c>
       <c r="F36" t="n">
-        <v>0.556</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>0.647</v>
+        <v>0.711</v>
       </c>
       <c r="H36" t="n">
         <v>0.357</v>
@@ -2100,7 +2100,7 @@
         <v>0.552</v>
       </c>
       <c r="J36" t="n">
-        <v>0.346</v>
+        <v>0.407</v>
       </c>
       <c r="K36" t="n">
         <v>0.471</v>
@@ -2125,7 +2125,7 @@
         <v>0.577</v>
       </c>
       <c r="C37" t="n">
-        <v>0.694</v>
+        <v>0.624</v>
       </c>
       <c r="D37" t="n">
         <v>0.484</v>
@@ -2152,7 +2152,7 @@
         <v>0.45</v>
       </c>
       <c r="L37" t="n">
-        <v>0.432</v>
+        <v>0.406</v>
       </c>
       <c r="M37" t="n">
         <v>2.021739130434783</v>
@@ -2183,13 +2183,13 @@
         <v>0.57</v>
       </c>
       <c r="G38" t="n">
-        <v>0.645</v>
+        <v>0.754</v>
       </c>
       <c r="H38" t="n">
         <v>0.362</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6</v>
+        <v>0.577</v>
       </c>
       <c r="J38" t="n">
         <v>0.36</v>
@@ -2198,7 +2198,7 @@
         <v>0.479</v>
       </c>
       <c r="L38" t="n">
-        <v>0.486</v>
+        <v>0.442</v>
       </c>
       <c r="M38" t="n">
         <v>1.480769230769231</v>
@@ -2223,7 +2223,7 @@
         <v>0.391</v>
       </c>
       <c r="E39" t="n">
-        <v>0.586</v>
+        <v>0.538</v>
       </c>
       <c r="F39" t="n">
         <v>0.5679999999999999</v>
@@ -2238,7 +2238,7 @@
         <v>0.545</v>
       </c>
       <c r="J39" t="n">
-        <v>0.264</v>
+        <v>0.299</v>
       </c>
       <c r="K39" t="n">
         <v>0.475</v>
@@ -2269,7 +2269,7 @@
         <v>0.436</v>
       </c>
       <c r="E40" t="n">
-        <v>0.605</v>
+        <v>0.525</v>
       </c>
       <c r="F40" t="n">
         <v>0.525</v>
@@ -2281,7 +2281,7 @@
         <v>0.375</v>
       </c>
       <c r="I40" t="n">
-        <v>0.542</v>
+        <v>0.504</v>
       </c>
       <c r="J40" t="n">
         <v>0.349</v>
@@ -2315,19 +2315,19 @@
         <v>0.483</v>
       </c>
       <c r="E41" t="n">
-        <v>0.602</v>
+        <v>0.603</v>
       </c>
       <c r="F41" t="n">
         <v>0.555</v>
       </c>
       <c r="G41" t="n">
-        <v>0.714</v>
+        <v>0.731</v>
       </c>
       <c r="H41" t="n">
         <v>0.335</v>
       </c>
       <c r="I41" t="n">
-        <v>0.519</v>
+        <v>0.609</v>
       </c>
       <c r="J41" t="n">
         <v>0.257</v>
@@ -2361,7 +2361,7 @@
         <v>0.451</v>
       </c>
       <c r="E42" t="n">
-        <v>0.604</v>
+        <v>0.545</v>
       </c>
       <c r="F42" t="n">
         <v>0.581</v>
@@ -2376,7 +2376,7 @@
         <v>0.539</v>
       </c>
       <c r="J42" t="n">
-        <v>0.332</v>
+        <v>0.314</v>
       </c>
       <c r="K42" t="n">
         <v>0.472</v>
@@ -2413,7 +2413,7 @@
         <v>0.533</v>
       </c>
       <c r="G43" t="n">
-        <v>0.597</v>
+        <v>0.736</v>
       </c>
       <c r="H43" t="n">
         <v>0.373</v>
@@ -2453,7 +2453,7 @@
         <v>0.467</v>
       </c>
       <c r="E44" t="n">
-        <v>0.582</v>
+        <v>0.508</v>
       </c>
       <c r="F44" t="n">
         <v>0.569</v>
@@ -2505,10 +2505,10 @@
         <v>0.634</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.706</v>
       </c>
       <c r="H45" t="n">
-        <v>0.372</v>
+        <v>0.401</v>
       </c>
       <c r="I45" t="n">
         <v>0.54</v>
@@ -2520,7 +2520,7 @@
         <v>0.477</v>
       </c>
       <c r="L45" t="n">
-        <v>0.464</v>
+        <v>0.432</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
@@ -2545,7 +2545,7 @@
         <v>0.439</v>
       </c>
       <c r="E46" t="n">
-        <v>0.62</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F46" t="n">
         <v>0.49</v>
@@ -2591,10 +2591,10 @@
         <v>0.502</v>
       </c>
       <c r="E47" t="n">
-        <v>0.59</v>
+        <v>0.551</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G47" t="n">
         <v>0.618</v>
@@ -2609,7 +2609,7 @@
         <v>0.4</v>
       </c>
       <c r="K47" t="n">
-        <v>0.483</v>
+        <v>0.439</v>
       </c>
       <c r="L47" t="n">
         <v>0.453</v>
@@ -2643,7 +2643,7 @@
         <v>0.525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.638</v>
+        <v>0.712</v>
       </c>
       <c r="H48" t="n">
         <v>0.372</v>
@@ -2698,7 +2698,7 @@
         <v>0.602</v>
       </c>
       <c r="J49" t="n">
-        <v>0.413</v>
+        <v>0.533</v>
       </c>
       <c r="K49" t="n">
         <v>0.608</v>
@@ -2735,7 +2735,7 @@
         <v>0.569</v>
       </c>
       <c r="G50" t="n">
-        <v>0.627</v>
+        <v>0.624</v>
       </c>
       <c r="H50" t="n">
         <v>0.37</v>
@@ -2744,13 +2744,13 @@
         <v>0.592</v>
       </c>
       <c r="J50" t="n">
-        <v>0.347</v>
+        <v>0.39</v>
       </c>
       <c r="K50" t="n">
         <v>0.492</v>
       </c>
       <c r="L50" t="n">
-        <v>0.451</v>
+        <v>0.416</v>
       </c>
       <c r="M50" t="n">
         <v>1.466666666666667</v>
@@ -2790,13 +2790,13 @@
         <v>0.538</v>
       </c>
       <c r="J51" t="n">
-        <v>0.314</v>
+        <v>0.342</v>
       </c>
       <c r="K51" t="n">
         <v>0.449</v>
       </c>
       <c r="L51" t="n">
-        <v>0.432</v>
+        <v>0.397</v>
       </c>
       <c r="M51" t="n">
         <v>3.12</v>
@@ -2818,7 +2818,7 @@
         <v>0.607</v>
       </c>
       <c r="D52" t="n">
-        <v>0.515</v>
+        <v>0.485</v>
       </c>
       <c r="E52" t="n">
         <v>0.5649999999999999</v>
@@ -2842,7 +2842,7 @@
         <v>0.38</v>
       </c>
       <c r="L52" t="n">
-        <v>0.497</v>
+        <v>0.393</v>
       </c>
       <c r="M52" t="n">
         <v>2.529411764705882</v>
@@ -2873,19 +2873,19 @@
         <v>0.549</v>
       </c>
       <c r="G53" t="n">
-        <v>0.708</v>
+        <v>0.734</v>
       </c>
       <c r="H53" t="n">
         <v>0.336</v>
       </c>
       <c r="I53" t="n">
-        <v>0.533</v>
+        <v>0.6</v>
       </c>
       <c r="J53" t="n">
         <v>0.313</v>
       </c>
       <c r="K53" t="n">
-        <v>0.515</v>
+        <v>0.462</v>
       </c>
       <c r="L53" t="n">
         <v>0.412</v>
@@ -2928,13 +2928,13 @@
         <v>0.579</v>
       </c>
       <c r="J54" t="n">
-        <v>0.314</v>
+        <v>0.383</v>
       </c>
       <c r="K54" t="n">
         <v>0.453</v>
       </c>
       <c r="L54" t="n">
-        <v>0.444</v>
+        <v>0.415</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -2962,19 +2962,19 @@
         <v>0.5659999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>0.503</v>
+        <v>0.492</v>
       </c>
       <c r="G55" t="n">
-        <v>0.642</v>
+        <v>0.729</v>
       </c>
       <c r="H55" t="n">
-        <v>0.382</v>
+        <v>0.43</v>
       </c>
       <c r="I55" t="n">
         <v>0.538</v>
       </c>
       <c r="J55" t="n">
-        <v>0.321</v>
+        <v>0.366</v>
       </c>
       <c r="K55" t="n">
         <v>0.488</v>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.524</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="C56" t="n">
         <v>0.621</v>
@@ -3011,7 +3011,7 @@
         <v>0.524</v>
       </c>
       <c r="G56" t="n">
-        <v>0.519</v>
+        <v>0.612</v>
       </c>
       <c r="H56" t="n">
         <v>0.434</v>
@@ -3057,7 +3057,7 @@
         <v>0.602</v>
       </c>
       <c r="G57" t="n">
-        <v>0.627</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0.367</v>
@@ -3066,7 +3066,7 @@
         <v>0.552</v>
       </c>
       <c r="J57" t="n">
-        <v>0.356</v>
+        <v>0.366</v>
       </c>
       <c r="K57" t="n">
         <v>0.451</v>
@@ -3103,10 +3103,10 @@
         <v>0.594</v>
       </c>
       <c r="G58" t="n">
-        <v>0.649</v>
+        <v>0.735</v>
       </c>
       <c r="H58" t="n">
-        <v>0.385</v>
+        <v>0.37</v>
       </c>
       <c r="I58" t="n">
         <v>0.528</v>
@@ -3143,16 +3143,16 @@
         <v>0.456</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F59" t="n">
         <v>0.621</v>
       </c>
       <c r="G59" t="n">
-        <v>0.623</v>
+        <v>0.676</v>
       </c>
       <c r="H59" t="n">
-        <v>0.361</v>
+        <v>0.381</v>
       </c>
       <c r="I59" t="n">
         <v>0.577</v>
@@ -3189,7 +3189,7 @@
         <v>0.494</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.586</v>
       </c>
       <c r="F60" t="n">
         <v>0.5669999999999999</v>
@@ -3204,7 +3204,7 @@
         <v>0.496</v>
       </c>
       <c r="J60" t="n">
-        <v>0.264</v>
+        <v>0.402</v>
       </c>
       <c r="K60" t="n">
         <v>0.375</v>
@@ -3241,7 +3241,7 @@
         <v>0.612</v>
       </c>
       <c r="G61" t="n">
-        <v>0.615</v>
+        <v>0.675</v>
       </c>
       <c r="H61" t="n">
         <v>0.338</v>
@@ -3287,7 +3287,7 @@
         <v>0.484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.512</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0.364</v>
@@ -3324,10 +3324,10 @@
         <v>0.616</v>
       </c>
       <c r="D63" t="n">
-        <v>0.436</v>
+        <v>0.465</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.517</v>
       </c>
       <c r="F63" t="n">
         <v>0.555</v>
@@ -3336,7 +3336,7 @@
         <v>0.625</v>
       </c>
       <c r="H63" t="n">
-        <v>0.373</v>
+        <v>0.388</v>
       </c>
       <c r="I63" t="n">
         <v>0.5610000000000001</v>
@@ -3379,13 +3379,13 @@
         <v>0.585</v>
       </c>
       <c r="G64" t="n">
-        <v>0.719</v>
+        <v>0.734</v>
       </c>
       <c r="H64" t="n">
         <v>0.35</v>
       </c>
       <c r="I64" t="n">
-        <v>0.508</v>
+        <v>0.6</v>
       </c>
       <c r="J64" t="n">
         <v>0.275</v>
@@ -3394,7 +3394,7 @@
         <v>0.39</v>
       </c>
       <c r="L64" t="n">
-        <v>0.428</v>
+        <v>0.406</v>
       </c>
       <c r="M64" t="n">
         <v>4.8</v>
@@ -3425,13 +3425,13 @@
         <v>0.592</v>
       </c>
       <c r="G65" t="n">
-        <v>0.616</v>
+        <v>0.74</v>
       </c>
       <c r="H65" t="n">
         <v>0.39</v>
       </c>
       <c r="I65" t="n">
-        <v>0.537</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="J65" t="n">
         <v>0.379</v>
@@ -3480,13 +3480,13 @@
         <v>0.546</v>
       </c>
       <c r="J66" t="n">
-        <v>0.305</v>
+        <v>0.392</v>
       </c>
       <c r="K66" t="n">
         <v>0.432</v>
       </c>
       <c r="L66" t="n">
-        <v>0.434</v>
+        <v>0.42</v>
       </c>
       <c r="M66" t="n">
         <v>3.675</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.725</v>
+        <v>0.649</v>
       </c>
       <c r="C67" t="n">
         <v>0.613</v>
@@ -3523,10 +3523,10 @@
         <v>0.378</v>
       </c>
       <c r="I67" t="n">
-        <v>0.507</v>
+        <v>0.547</v>
       </c>
       <c r="J67" t="n">
-        <v>0.355</v>
+        <v>0.398</v>
       </c>
       <c r="K67" t="n">
         <v>0.455</v>
@@ -3563,7 +3563,7 @@
         <v>0.496</v>
       </c>
       <c r="G68" t="n">
-        <v>0.602</v>
+        <v>0.746</v>
       </c>
       <c r="H68" t="n">
         <v>0.362</v>
@@ -3609,7 +3609,7 @@
         <v>0.518</v>
       </c>
       <c r="G69" t="n">
-        <v>0.616</v>
+        <v>0.709</v>
       </c>
       <c r="H69" t="n">
         <v>0.371</v>
@@ -3664,7 +3664,7 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="J70" t="n">
-        <v>0.34</v>
+        <v>0.413</v>
       </c>
       <c r="K70" t="n">
         <v>0.476</v>
@@ -3695,7 +3695,7 @@
         <v>0.446</v>
       </c>
       <c r="E71" t="n">
-        <v>0.597</v>
+        <v>0.548</v>
       </c>
       <c r="F71" t="n">
         <v>0.601</v>
@@ -3707,7 +3707,7 @@
         <v>0.331</v>
       </c>
       <c r="I71" t="n">
-        <v>0.534</v>
+        <v>0.529</v>
       </c>
       <c r="J71" t="n">
         <v>0.278</v>
@@ -3744,7 +3744,7 @@
         <v>0.548</v>
       </c>
       <c r="F72" t="n">
-        <v>0.576</v>
+        <v>0.463</v>
       </c>
       <c r="G72" t="n">
         <v>0.621</v>
@@ -3753,7 +3753,7 @@
         <v>0.388</v>
       </c>
       <c r="I72" t="n">
-        <v>0.511</v>
+        <v>0.553</v>
       </c>
       <c r="J72" t="n">
         <v>0.4</v>
@@ -3762,7 +3762,7 @@
         <v>0.538</v>
       </c>
       <c r="L72" t="n">
-        <v>0.454</v>
+        <v>0.4</v>
       </c>
       <c r="M72" t="n">
         <v>2.6</v>
@@ -3802,7 +3802,7 @@
         <v>0.556</v>
       </c>
       <c r="J73" t="n">
-        <v>0.371</v>
+        <v>0.474</v>
       </c>
       <c r="K73" t="n">
         <v>0.456</v>
@@ -3833,13 +3833,13 @@
         <v>0.398</v>
       </c>
       <c r="E74" t="n">
-        <v>0.579</v>
+        <v>0.526</v>
       </c>
       <c r="F74" t="n">
         <v>0.488</v>
       </c>
       <c r="G74" t="n">
-        <v>0.552</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0.408</v>
@@ -3851,7 +3851,7 @@
         <v>0.448</v>
       </c>
       <c r="K74" t="n">
-        <v>0.46</v>
+        <v>0.382</v>
       </c>
       <c r="L74" t="n">
         <v>0.472</v>
@@ -3870,16 +3870,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.637</v>
+        <v>0.635</v>
       </c>
       <c r="C75" t="n">
-        <v>0.649</v>
+        <v>0.623</v>
       </c>
       <c r="D75" t="n">
         <v>0.468</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="F75" t="n">
         <v>0.521</v>
@@ -3934,10 +3934,10 @@
         <v>0.627</v>
       </c>
       <c r="H76" t="n">
-        <v>0.375</v>
+        <v>0.441</v>
       </c>
       <c r="I76" t="n">
-        <v>0.548</v>
+        <v>0.607</v>
       </c>
       <c r="J76" t="n">
         <v>0.367</v>
@@ -3971,7 +3971,7 @@
         <v>0.46</v>
       </c>
       <c r="E77" t="n">
-        <v>0.581</v>
+        <v>0.511</v>
       </c>
       <c r="F77" t="n">
         <v>0.533</v>
@@ -4032,10 +4032,10 @@
         <v>0.532</v>
       </c>
       <c r="J78" t="n">
-        <v>0.275</v>
+        <v>0.343</v>
       </c>
       <c r="K78" t="n">
-        <v>0.439</v>
+        <v>0.383</v>
       </c>
       <c r="L78" t="n">
         <v>0.436</v>
@@ -4069,7 +4069,7 @@
         <v>0.522</v>
       </c>
       <c r="G79" t="n">
-        <v>0.604</v>
+        <v>0.675</v>
       </c>
       <c r="H79" t="n">
         <v>0.37</v>
@@ -4084,7 +4084,7 @@
         <v>0.448</v>
       </c>
       <c r="L79" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="M79" t="n">
         <v>0.71875</v>
@@ -4106,7 +4106,7 @@
         <v>0.629</v>
       </c>
       <c r="D80" t="n">
-        <v>0.463</v>
+        <v>0.48</v>
       </c>
       <c r="E80" t="n">
         <v>0.5610000000000001</v>
@@ -4118,7 +4118,7 @@
         <v>0.658</v>
       </c>
       <c r="H80" t="n">
-        <v>0.343</v>
+        <v>0.414</v>
       </c>
       <c r="I80" t="n">
         <v>0.514</v>
@@ -4161,7 +4161,7 @@
         <v>0.466</v>
       </c>
       <c r="G81" t="n">
-        <v>0.52</v>
+        <v>0.711</v>
       </c>
       <c r="H81" t="n">
         <v>0.361</v>
@@ -4222,7 +4222,7 @@
         <v>0.392</v>
       </c>
       <c r="L82" t="n">
-        <v>0.481</v>
+        <v>0.41</v>
       </c>
       <c r="M82" t="n">
         <v>4.733333333333333</v>
@@ -4247,7 +4247,7 @@
         <v>0.456</v>
       </c>
       <c r="E83" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="F83" t="n">
         <v>0.483</v>
@@ -4262,7 +4262,7 @@
         <v>0.523</v>
       </c>
       <c r="J83" t="n">
-        <v>0.319</v>
+        <v>0.366</v>
       </c>
       <c r="K83" t="n">
         <v>0.395</v>
@@ -4299,13 +4299,13 @@
         <v>0.508</v>
       </c>
       <c r="G84" t="n">
-        <v>0.601</v>
+        <v>0.734</v>
       </c>
       <c r="H84" t="n">
         <v>0.307</v>
       </c>
       <c r="I84" t="n">
-        <v>0.544</v>
+        <v>0.6</v>
       </c>
       <c r="J84" t="n">
         <v>0.265</v>
@@ -4336,7 +4336,7 @@
         <v>0.601</v>
       </c>
       <c r="D85" t="n">
-        <v>0.372</v>
+        <v>0.441</v>
       </c>
       <c r="E85" t="n">
         <v>0.533</v>
@@ -4360,7 +4360,7 @@
         <v>0.463</v>
       </c>
       <c r="L85" t="n">
-        <v>0.463</v>
+        <v>0.42</v>
       </c>
       <c r="M85" t="n">
         <v>1.777777777777778</v>
@@ -4385,7 +4385,7 @@
         <v>0.431</v>
       </c>
       <c r="E86" t="n">
-        <v>0.575</v>
+        <v>0.523</v>
       </c>
       <c r="F86" t="n">
         <v>0.5580000000000001</v>
@@ -4397,7 +4397,7 @@
         <v>0.314</v>
       </c>
       <c r="I86" t="n">
-        <v>0.502</v>
+        <v>0.501</v>
       </c>
       <c r="J86" t="n">
         <v>0.243</v>
@@ -4440,7 +4440,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0.354</v>
+        <v>0.43</v>
       </c>
       <c r="I87" t="n">
         <v>0.538</v>
@@ -4483,7 +4483,7 @@
         <v>0.573</v>
       </c>
       <c r="G88" t="n">
-        <v>0.632</v>
+        <v>0.724</v>
       </c>
       <c r="H88" t="n">
         <v>0.341</v>
@@ -4529,7 +4529,7 @@
         <v>0.516</v>
       </c>
       <c r="G89" t="n">
-        <v>0.634</v>
+        <v>0.771</v>
       </c>
       <c r="H89" t="n">
         <v>0.373</v>
@@ -4575,10 +4575,10 @@
         <v>0.476</v>
       </c>
       <c r="G90" t="n">
-        <v>0.599</v>
+        <v>0.72</v>
       </c>
       <c r="H90" t="n">
-        <v>0.382</v>
+        <v>0.425</v>
       </c>
       <c r="I90" t="n">
         <v>0.507</v>
@@ -4618,13 +4618,13 @@
         <v>0.548</v>
       </c>
       <c r="F91" t="n">
-        <v>0.54</v>
+        <v>0.653</v>
       </c>
       <c r="G91" t="n">
         <v>0.626</v>
       </c>
       <c r="H91" t="n">
-        <v>0.342</v>
+        <v>0.475</v>
       </c>
       <c r="I91" t="n">
         <v>0.5629999999999999</v>
@@ -4670,7 +4670,7 @@
         <v>0.782</v>
       </c>
       <c r="H92" t="n">
-        <v>0.312</v>
+        <v>0.365</v>
       </c>
       <c r="I92" t="n">
         <v>0.502</v>
@@ -4682,7 +4682,7 @@
         <v>0.449</v>
       </c>
       <c r="L92" t="n">
-        <v>0.401</v>
+        <v>0.385</v>
       </c>
       <c r="M92" t="n">
         <v>6.5</v>
@@ -4713,10 +4713,10 @@
         <v>0.524</v>
       </c>
       <c r="G93" t="n">
-        <v>0.587</v>
+        <v>0.72</v>
       </c>
       <c r="H93" t="n">
-        <v>0.392</v>
+        <v>0.425</v>
       </c>
       <c r="I93" t="n">
         <v>0.524</v>
@@ -4747,7 +4747,7 @@
         <v>0.607</v>
       </c>
       <c r="C94" t="n">
-        <v>0.678</v>
+        <v>0.633</v>
       </c>
       <c r="D94" t="n">
         <v>0.46</v>
@@ -4768,7 +4768,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="J94" t="n">
-        <v>0.375</v>
+        <v>0.47</v>
       </c>
       <c r="K94" t="n">
         <v>0.483</v>
@@ -4802,7 +4802,7 @@
         <v>0.547</v>
       </c>
       <c r="F95" t="n">
-        <v>0.535</v>
+        <v>0.59</v>
       </c>
       <c r="G95" t="n">
         <v>0.622</v>
@@ -4814,7 +4814,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="J95" t="n">
-        <v>0.349</v>
+        <v>0.443</v>
       </c>
       <c r="K95" t="n">
         <v>0.536</v>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.724</v>
+        <v>0.653</v>
       </c>
       <c r="C96" t="n">
         <v>0.631</v>
@@ -4845,7 +4845,7 @@
         <v>0.477</v>
       </c>
       <c r="E96" t="n">
-        <v>0.577</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F96" t="n">
         <v>0.594</v>
@@ -4854,7 +4854,7 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0.34</v>
+        <v>0.369</v>
       </c>
       <c r="I96" t="n">
         <v>0.532</v>
@@ -4900,13 +4900,13 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0.315</v>
+        <v>0.41</v>
       </c>
       <c r="I97" t="n">
         <v>0.5659999999999999</v>
       </c>
       <c r="J97" t="n">
-        <v>0.333</v>
+        <v>0.415</v>
       </c>
       <c r="K97" t="n">
         <v>0.407</v>
@@ -4943,7 +4943,7 @@
         <v>0.516</v>
       </c>
       <c r="G98" t="n">
-        <v>0.608</v>
+        <v>0.698</v>
       </c>
       <c r="H98" t="n">
         <v>0.362</v>
@@ -4989,7 +4989,7 @@
         <v>0.528</v>
       </c>
       <c r="G99" t="n">
-        <v>0.632</v>
+        <v>0.728</v>
       </c>
       <c r="H99" t="n">
         <v>0.343</v>
@@ -5035,7 +5035,7 @@
         <v>0.438</v>
       </c>
       <c r="G100" t="n">
-        <v>0.61</v>
+        <v>0.708</v>
       </c>
       <c r="H100" t="n">
         <v>0.359</v>
@@ -5047,7 +5047,7 @@
         <v>0.332</v>
       </c>
       <c r="K100" t="n">
-        <v>0.489</v>
+        <v>0.515</v>
       </c>
       <c r="L100" t="n">
         <v>0.434</v>
@@ -5075,13 +5075,13 @@
         <v>0.456</v>
       </c>
       <c r="E101" t="n">
-        <v>0.617</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F101" t="n">
         <v>0.583</v>
       </c>
       <c r="G101" t="n">
-        <v>0.649</v>
+        <v>0.773</v>
       </c>
       <c r="H101" t="n">
         <v>0.314</v>
